--- a/output/bultos_codelco.xlsx
+++ b/output/bultos_codelco.xlsx
@@ -485,7 +485,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.33</v>
+        <v>0.14</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.79</v>
+        <v>0.26</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.38</v>
+        <v>0.15</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -522,7 +522,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>0.3125</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.33</v>
+        <v>0.05</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.79</v>
+        <v>0.04</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.38</v>
+        <v>0.02</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -559,7 +559,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>0.3125</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.33</v>
+        <v>0.05</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -575,7 +575,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.79</v>
+        <v>0.04</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -583,7 +583,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.38</v>
+        <v>0.02</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -596,7 +596,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.3125</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.33</v>
+        <v>0.05</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.79</v>
+        <v>0.04</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.38</v>
+        <v>0.02</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -633,7 +633,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>0.3125</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -641,7 +641,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.33</v>
+        <v>0.05</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -649,7 +649,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.79</v>
+        <v>0.04</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.38</v>
+        <v>0.02</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13</v>
+        <v>0.3125</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.2</v>
+        <v>0.05</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.2</v>
+        <v>0.04</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -694,7 +694,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0.02</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -707,7 +707,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>13</v>
+        <v>0.3125</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -715,7 +715,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1.2</v>
+        <v>0.05</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -723,7 +723,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.2</v>
+        <v>0.04</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0.02</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>13</v>
+        <v>0.3125</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.2</v>
+        <v>0.05</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.2</v>
+        <v>0.04</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0.02</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>13</v>
+        <v>0.3125</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1.2</v>
+        <v>0.05</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -797,7 +797,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.2</v>
+        <v>0.04</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0.02</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -818,7 +818,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>13</v>
+        <v>0.3125</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -826,7 +826,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1.2</v>
+        <v>0.05</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.2</v>
+        <v>0.04</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0.02</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>13</v>
+        <v>0.3125</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1.2</v>
+        <v>0.05</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.2</v>
+        <v>0.04</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0.02</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>0.3125</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1.2</v>
+        <v>0.05</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -908,7 +908,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.2</v>
+        <v>0.04</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0.02</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>0.3125</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1.2</v>
+        <v>0.05</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -945,7 +945,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.2</v>
+        <v>0.04</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0.02</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -966,7 +966,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>13</v>
+        <v>0.3125</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1.2</v>
+        <v>0.05</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.2</v>
+        <v>0.04</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0.02</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>13</v>
+        <v>0.3125</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.2</v>
+        <v>0.05</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.2</v>
+        <v>0.04</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0.02</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1040,7 +1040,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>13</v>
+        <v>0.3125</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.2</v>
+        <v>0.05</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.2</v>
+        <v>0.04</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1064,7 +1064,7 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0.02</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>13</v>
+        <v>0.3125</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1.2</v>
+        <v>0.05</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.2</v>
+        <v>0.04</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0.02</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>

--- a/output/bultos_codelco.xlsx
+++ b/output/bultos_codelco.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,7 +485,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>11.23</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.14</v>
+        <v>0.36</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.26</v>
+        <v>0.6</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.15</v>
+        <v>0.46</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -522,7 +522,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3125</v>
+        <v>11.09</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.05</v>
+        <v>0.36</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.04</v>
+        <v>0.6</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.02</v>
+        <v>0.46</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -559,7 +559,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3125</v>
+        <v>11.03</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.05</v>
+        <v>0.36</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -575,7 +575,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.04</v>
+        <v>0.6</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -583,7 +583,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.02</v>
+        <v>0.46</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -596,7 +596,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.3125</v>
+        <v>11.07</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.05</v>
+        <v>0.36</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.04</v>
+        <v>0.6</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.02</v>
+        <v>0.46</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -633,7 +633,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.3125</v>
+        <v>11.35</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -641,7 +641,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.05</v>
+        <v>0.36</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -649,7 +649,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.04</v>
+        <v>0.6</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -657,453 +657,9 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.02</v>
+        <v>0.46</v>
       </c>
       <c r="I6" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.3125</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.3125</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.3125</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.3125</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.3125</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.3125</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.3125</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.3125</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.3125</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.3125</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.3125</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0.3125</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="I18" t="inlineStr">
         <is>
           <t>M</t>
         </is>

--- a/output/bultos_codelco.xlsx
+++ b/output/bultos_codelco.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,7 +485,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>11.23</v>
+        <v>9.98</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -512,154 +512,6 @@
         <v>0.46</v>
       </c>
       <c r="I2" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>11.09</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>11.03</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="I6" t="inlineStr">
         <is>
           <t>M</t>
         </is>

--- a/output/bultos_codelco.xlsx
+++ b/output/bultos_codelco.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,7 +485,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>11.23</v>
+        <v>2</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.36</v>
+        <v>0.31</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.46</v>
+        <v>0.31</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -522,7 +522,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>11.09</v>
+        <v>5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -559,7 +559,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11.03</v>
+        <v>2</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -586,80 +586,6 @@
         <v>0.46</v>
       </c>
       <c r="I4" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="I6" t="inlineStr">
         <is>
           <t>M</t>
         </is>

--- a/output/bultos_codelco.xlsx
+++ b/output/bultos_codelco.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,7 +485,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.98</v>
+        <v>12.62</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -512,6 +512,598 @@
         <v>0.46</v>
       </c>
       <c r="I2" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>12.66</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>11.56</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>12.66</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>13</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>13</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>13</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>13</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>13</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>13</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>13</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>13</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>13</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>13</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>M</t>
         </is>
